--- a/毕业设计相关/开题相关/开题报告-图表.xlsx
+++ b/毕业设计相关/开题相关/开题报告-图表.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18067"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\MyProject\GraduationDesign\毕业设计相关\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\MyProject\GraduationDesign\毕业设计相关\开题相关\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,9 +20,34 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+  <si>
+    <t>数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定头部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定尾部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snowhead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snowtail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -36,6 +61,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -45,12 +78,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -59,9 +107,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -166,13 +220,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -187,7 +241,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="371475" y="895350"/>
+          <a:off x="371475" y="923925"/>
           <a:ext cx="857250" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -343,13 +397,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>589280</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -364,7 +418,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1504950" y="904875"/>
+          <a:off x="1504950" y="923925"/>
           <a:ext cx="1827530" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -518,15 +572,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>269875</xdr:colOff>
+      <xdr:colOff>241300</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>60325</xdr:rowOff>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>260985</xdr:colOff>
+      <xdr:colOff>232410</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:rowOff>155575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -541,7 +595,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3698875" y="917575"/>
+          <a:off x="3670300" y="927100"/>
           <a:ext cx="1362710" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -697,13 +751,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>615950</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>73025</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>681990</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>149225</xdr:rowOff>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -718,7 +772,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5416550" y="930275"/>
+          <a:off x="5416550" y="920750"/>
           <a:ext cx="751840" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1128,13 +1182,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>467360</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>85090</xdr:rowOff>
+      <xdr:rowOff>94615</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1149,7 +1203,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1476375" y="1447800"/>
+          <a:off x="1476375" y="1457325"/>
           <a:ext cx="362585" cy="1551940"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1320,13 +1374,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>679450</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>337820</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1341,7 +1395,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2051050" y="1450975"/>
+          <a:off x="2051050" y="1460500"/>
           <a:ext cx="344170" cy="1597025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1496,13 +1550,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>114935</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>86360</xdr:rowOff>
+      <xdr:rowOff>95885</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1517,7 +1571,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2543175" y="1447800"/>
+          <a:off x="2543175" y="1457325"/>
           <a:ext cx="314960" cy="867410"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1672,13 +1726,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>610235</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>66040</xdr:rowOff>
+      <xdr:rowOff>75565</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1693,7 +1747,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2981325" y="1447800"/>
+          <a:off x="2981325" y="1457325"/>
           <a:ext cx="372110" cy="1189990"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2022,13 +2076,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>440055</xdr:colOff>
+      <xdr:colOff>411480</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
@@ -2045,7 +2099,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4200525" y="1514475"/>
+          <a:off x="4171950" y="1514475"/>
           <a:ext cx="354330" cy="838200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2198,15 +2252,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>258445</xdr:colOff>
+      <xdr:colOff>229870</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2221,7 +2275,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4714875" y="1514475"/>
+          <a:off x="4686300" y="1524000"/>
           <a:ext cx="344170" cy="866775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2373,16 +2427,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>477520</xdr:colOff>
+      <xdr:colOff>134620</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>150495</xdr:rowOff>
+      <xdr:rowOff>140970</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2397,7 +2451,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5619750" y="1504950"/>
+          <a:off x="5276850" y="1495425"/>
           <a:ext cx="344170" cy="1560195"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2550,15 +2604,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>114617</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>86042</xdr:rowOff>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>514667</xdr:colOff>
+      <xdr:colOff>514033</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>38417</xdr:rowOff>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2576,8 +2630,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="1880870" y="-480695"/>
-          <a:ext cx="295275" cy="2456815"/>
+          <a:off x="1866742" y="-466566"/>
+          <a:ext cx="323850" cy="2457133"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -2590,13 +2644,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -2608,15 +2662,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>305436</xdr:colOff>
+      <xdr:colOff>305435</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>114301</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2634,8 +2688,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="405131" y="1052830"/>
-          <a:ext cx="295275" cy="494665"/>
+          <a:off x="419418" y="1067118"/>
+          <a:ext cx="266700" cy="494665"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -2648,13 +2702,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -2666,15 +2720,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>286702</xdr:colOff>
+      <xdr:colOff>286068</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>123507</xdr:rowOff>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>361632</xdr:colOff>
+      <xdr:colOff>361315</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>75882</xdr:rowOff>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2692,8 +2746,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="1890395" y="918845"/>
-          <a:ext cx="295275" cy="760730"/>
+          <a:off x="1895317" y="933927"/>
+          <a:ext cx="285750" cy="761047"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -2706,13 +2760,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -2726,13 +2780,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>165735</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>123507</xdr:rowOff>
+      <xdr:rowOff>133032</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>361633</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2749,7 +2803,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="2171700" y="1203642"/>
+          <a:off x="2171700" y="1213167"/>
           <a:ext cx="298768" cy="195898"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -2763,13 +2817,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -2781,15 +2835,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>361632</xdr:colOff>
+      <xdr:colOff>361315</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>123507</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>643572</xdr:colOff>
+      <xdr:colOff>643255</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>75882</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2806,9 +2860,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000" flipV="1">
-          <a:off x="2411730" y="1158240"/>
-          <a:ext cx="295275" cy="281940"/>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2416810" y="1173480"/>
+          <a:ext cx="285750" cy="281940"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -2821,13 +2875,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -2839,15 +2893,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>361315</xdr:colOff>
+      <xdr:colOff>361314</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>123190</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>424180</xdr:colOff>
+      <xdr:colOff>424179</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>75565</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2864,13 +2918,13 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000" flipV="1">
-          <a:off x="2645410" y="925195"/>
-          <a:ext cx="295275" cy="748665"/>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2650172" y="940117"/>
+          <a:ext cx="285750" cy="748665"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 50108"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -2879,13 +2933,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -2897,15 +2951,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>466407</xdr:colOff>
+      <xdr:colOff>466726</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>145732</xdr:rowOff>
+      <xdr:rowOff>155574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>265112</xdr:colOff>
+      <xdr:colOff>236856</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>152082</xdr:rowOff>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2923,12 +2977,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="3962400" y="1106170"/>
-          <a:ext cx="349250" cy="484505"/>
+          <a:off x="3953828" y="1126172"/>
+          <a:ext cx="339725" cy="455930"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 49909"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -2937,13 +2991,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -2955,15 +3009,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>263207</xdr:colOff>
+      <xdr:colOff>234315</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>146367</xdr:rowOff>
+      <xdr:rowOff>155575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>265747</xdr:colOff>
+      <xdr:colOff>236855</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>143192</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2981,8 +3035,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="4208780" y="1343025"/>
-          <a:ext cx="339725" cy="2540"/>
+          <a:off x="4185285" y="1348105"/>
+          <a:ext cx="330200" cy="2540"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -2995,13 +3049,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -3013,15 +3067,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>265747</xdr:colOff>
+      <xdr:colOff>236856</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>145732</xdr:rowOff>
+      <xdr:rowOff>155574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>86677</xdr:colOff>
+      <xdr:colOff>57786</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>142557</xdr:rowOff>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3038,8 +3092,8 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000" flipV="1">
-          <a:off x="4463415" y="1090295"/>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4435158" y="1100772"/>
           <a:ext cx="339725" cy="506730"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -3053,69 +3107,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>305435</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>149225</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>306070</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="直接箭头连接符 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="2"/>
-          <a:endCxn id="17" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5791835" y="1177925"/>
-          <a:ext cx="635" cy="327025"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -3127,15 +3125,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>114299</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>114935</xdr:colOff>
+      <xdr:colOff>114934</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3153,8 +3151,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="643255" y="1309369"/>
-          <a:ext cx="314325" cy="635"/>
+          <a:off x="657542" y="1323657"/>
+          <a:ext cx="285750" cy="635"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -3167,13 +3165,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -3185,15 +3183,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>514032</xdr:colOff>
+      <xdr:colOff>514033</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>306069</xdr:colOff>
+      <xdr:colOff>306070</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>73025</xdr:rowOff>
+      <xdr:rowOff>63499</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3211,8 +3209,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="4359751" y="-502444"/>
-          <a:ext cx="330200" cy="2535237"/>
+          <a:off x="4364514" y="-507207"/>
+          <a:ext cx="320675" cy="2535237"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -3225,13 +3223,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -3243,15 +3241,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:colOff>514034</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>265430</xdr:colOff>
+      <xdr:colOff>236856</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>60325</xdr:rowOff>
+      <xdr:rowOff>69849</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3268,9 +3266,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000" flipV="1">
-          <a:off x="3660140" y="197485"/>
-          <a:ext cx="317500" cy="1122680"/>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3640932" y="216376"/>
+          <a:ext cx="327025" cy="1094422"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -3283,13 +3281,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -3301,15 +3299,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>360997</xdr:colOff>
+      <xdr:colOff>361315</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>85407</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>514032</xdr:colOff>
+      <xdr:colOff>514033</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>47307</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3327,12 +3325,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="2684780" y="332105"/>
-          <a:ext cx="304800" cy="838835"/>
+          <a:off x="2676049" y="342741"/>
+          <a:ext cx="323850" cy="838518"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 49896"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -3341,13 +3339,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -5847,13 +5845,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>677545</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5868,7 +5866,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1038225" y="1438275"/>
+          <a:off x="1038225" y="1447800"/>
           <a:ext cx="325120" cy="857250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5925,13 +5923,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>114299</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>514984</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5949,25 +5947,25 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="857567" y="1095057"/>
-          <a:ext cx="285750" cy="400685"/>
+          <a:off x="867092" y="1114107"/>
+          <a:ext cx="266700" cy="400685"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:tailEnd type="triangle"/>
+          <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -5978,192 +5976,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>10795</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="矩形 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A7001DA-C2B6-44BB-99A6-1129122616B6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5153025" y="1504950"/>
-          <a:ext cx="344170" cy="1228725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700"/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="zh-CN">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>清空历史消息</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>239395</xdr:colOff>
+      <xdr:colOff>144145</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6178,7 +6000,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6067425" y="1504950"/>
+          <a:off x="5972175" y="1495425"/>
           <a:ext cx="344170" cy="828675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6333,13 +6155,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>306071</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>149224</xdr:rowOff>
+      <xdr:rowOff>139699</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>67311</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>657861</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6357,8 +6179,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="5852478" y="1117917"/>
-          <a:ext cx="327025" cy="447040"/>
+          <a:off x="5804853" y="1156017"/>
+          <a:ext cx="327025" cy="351790"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -6369,13 +6191,2379 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>154305</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="圆角矩形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25099D52-00F3-4C01-BEBA-80807E9E7779}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6448425" y="771525"/>
+          <a:ext cx="2133600" cy="3326130"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700"/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>服务器</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>170815</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="圆角矩形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{860B0E13-B856-406B-9053-136793F3F6D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9553575" y="752475"/>
+          <a:ext cx="2133600" cy="1475740"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700"/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>客户端</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="圆角矩形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00A873C3-602D-40C0-BD82-B519E15131D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9591675" y="2647950"/>
+          <a:ext cx="2133600" cy="1475740"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700"/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>客户端</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="矩形 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{421EE7F8-FB36-4E81-9BB8-079A9083CECE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7648575" y="1285875"/>
+          <a:ext cx="742950" cy="2314575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700"/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>传递数据</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>618490</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="矩形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87975652-504A-4E18-B0C5-5ABD1CE6A22F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6648450" y="5410200"/>
+          <a:ext cx="828040" cy="2305050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700"/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>保存密钥</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>67310</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="矩形 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74B1FF2C-EEF2-4E25-917F-2D850D3F9339}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9782175" y="1076325"/>
+          <a:ext cx="342900" cy="876935"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700"/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>数据解析</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76835</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="矩形 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B6536EB-1DEE-43B4-8BF6-3F5CC346810D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10515600" y="1066800"/>
+          <a:ext cx="352425" cy="895985"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700"/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>私钥解密</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>231775</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>574675</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="矩形 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34316A33-F187-44BE-8A03-338AE91A7A4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11204575" y="1060450"/>
+          <a:ext cx="342900" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700"/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>消息显示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>45085</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="矩形 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{488C6CFE-CF22-4094-AA4B-0D5231AAD10D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9734550" y="2987675"/>
+          <a:ext cx="352425" cy="829310"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700"/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>数据封装</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>543560</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>62865</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="矩形 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{844C6B61-3C77-403D-90C5-1E2A70260974}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10477500" y="2987675"/>
+          <a:ext cx="353060" cy="847090"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700"/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>公钥加密</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="矩形 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A58CA1D-DAAE-4051-8780-2D24BE53623C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11176000" y="2971800"/>
+          <a:ext cx="342900" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700"/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>消息编辑</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="直接箭头连接符 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF9F4A71-4576-4027-A276-141C3C12D5C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="69" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8391525" y="3400425"/>
+          <a:ext cx="1343025" cy="1905"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>143510</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="直接箭头连接符 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5303875-F42D-42AC-BC67-D201767A9FBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="65" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8401050" y="1515110"/>
+          <a:ext cx="1381125" cy="8890"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>143510</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>143510</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="直接箭头连接符 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C7DEB13-374D-4920-A24A-198E6F461758}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="65" idx="3"/>
+          <a:endCxn id="67" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10125075" y="1515110"/>
+          <a:ext cx="390525" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>141605</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>231775</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>143510</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="直接箭头连接符 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43D6DF97-202D-45DD-85AD-8DB95501869A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="67" idx="3"/>
+          <a:endCxn id="68" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10868025" y="1513205"/>
+          <a:ext cx="336550" cy="1905"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>543560</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>147955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>153670</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="直接箭头连接符 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57FB2845-80CC-4364-9C06-C6888944D026}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="71" idx="1"/>
+          <a:endCxn id="70" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10830560" y="3405505"/>
+          <a:ext cx="345440" cy="5715"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>153670</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="直接箭头连接符 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35E7BEC2-8006-42DF-B37F-047368E6A802}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="70" idx="1"/>
+          <a:endCxn id="69" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10086975" y="3402330"/>
+          <a:ext cx="390525" cy="8890"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="文本框 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D2AA187-CAB1-420A-9F40-A9F78D1B86B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8705850" y="3152775"/>
+          <a:ext cx="762000" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>发送消息</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="文本框 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5103197A-1197-4B1A-929B-237CFF4F0D9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8677275" y="1276350"/>
+          <a:ext cx="762000" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>接收消息</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>648336</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>306071</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="连接符: 肘形 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CF4890F-49D7-4207-874C-173DB606FEBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="17" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5457191" y="1160145"/>
+          <a:ext cx="327025" cy="343535"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -6674,17 +8862,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="S5:U8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="20" max="20" width="17.125" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="5" spans="19:21" x14ac:dyDescent="0.15">
+      <c r="S5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="19:21" x14ac:dyDescent="0.15">
+      <c r="S8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/毕业设计相关/开题相关/开题报告-图表.xlsx
+++ b/毕业设计相关/开题相关/开题报告-图表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,6 +40,42 @@
   </si>
   <si>
     <t>snowtail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>body</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>……</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -107,7 +143,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -115,6 +151,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -138,15 +177,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>523240</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -162,8 +201,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1876425" y="342900"/>
-          <a:ext cx="2761615" cy="257175"/>
+          <a:off x="390525" y="1371600"/>
+          <a:ext cx="5419725" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -208,7 +247,7 @@
               </a:solidFill>
               <a:uFillTx/>
             </a:rPr>
-            <a:t>安全聊天工具</a:t>
+            <a:t>安全保证策略</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -219,13 +258,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -396,13 +435,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>589280</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -573,13 +612,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>232410</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>155575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -750,13 +789,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>615950</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>681990</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -927,13 +966,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>467995</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>94615</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1005,13 +1044,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>277495</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1181,13 +1220,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>467360</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>94615</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1373,13 +1412,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>679450</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>337820</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1549,13 +1588,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>114935</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>95885</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1725,13 +1764,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>610235</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>75565</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1901,13 +1940,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2077,13 +2116,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2253,13 +2292,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>229870</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2429,13 +2468,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>134620</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>140970</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2605,14 +2644,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>514033</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:colOff>357188</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2623,15 +2662,12 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="2"/>
-          <a:endCxn id="3" idx="0"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="1866742" y="-466566"/>
-          <a:ext cx="323850" cy="2457133"/>
+          <a:off x="1788319" y="640556"/>
+          <a:ext cx="323850" cy="2300288"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -2663,13 +2699,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>305435</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2721,14 +2757,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>286068</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>361315</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2739,14 +2775,11 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="2"/>
-          <a:endCxn id="10" idx="0"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="1895317" y="933927"/>
+          <a:off x="1895317" y="1972152"/>
           <a:ext cx="285750" cy="761047"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -2779,14 +2812,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>165735</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>133032</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142557</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>361633</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2797,13 +2830,11 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="11" idx="0"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="2171700" y="1213167"/>
+          <a:off x="2171700" y="2251392"/>
           <a:ext cx="298768" cy="195898"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -2836,14 +2867,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>361315</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>643255</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2854,14 +2885,11 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="2"/>
-          <a:endCxn id="12" idx="0"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="2416810" y="1173480"/>
+          <a:off x="2416810" y="2211705"/>
           <a:ext cx="285750" cy="281940"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -2894,14 +2922,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>361314</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>424179</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2912,14 +2940,11 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="2"/>
-          <a:endCxn id="13" idx="0"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="2650172" y="940117"/>
+          <a:off x="2650172" y="1978342"/>
           <a:ext cx="285750" cy="748665"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -2952,13 +2977,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>466726</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>155574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>236856</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3010,13 +3035,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>234315</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>155575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>236855</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3068,13 +3093,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>236856</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>155574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>57786</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3126,13 +3151,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>114934</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3183,14 +3208,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>514033</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:colOff>357189</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>306070</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:colOff>306071</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>63499</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3202,15 +3227,12 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="2"/>
-          <a:endCxn id="6" idx="0"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="4364514" y="-507207"/>
-          <a:ext cx="320675" cy="2535237"/>
+          <a:off x="4286092" y="443071"/>
+          <a:ext cx="320675" cy="2692082"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -3241,14 +3263,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>514034</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:colOff>357188</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>236856</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:colOff>236855</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>69849</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3260,15 +3282,12 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="2"/>
-          <a:endCxn id="5" idx="0"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="3640932" y="216376"/>
-          <a:ext cx="327025" cy="1094422"/>
+          <a:off x="3562509" y="1166653"/>
+          <a:ext cx="327025" cy="1251267"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -3300,14 +3319,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>361315</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>514033</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>357188</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3318,15 +3337,12 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="2"/>
-          <a:endCxn id="4" idx="0"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="2676049" y="342741"/>
-          <a:ext cx="323850" cy="838518"/>
+          <a:off x="2597627" y="1449864"/>
+          <a:ext cx="323850" cy="681673"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -3865,15 +3881,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>618490</xdr:colOff>
+      <xdr:colOff>599440</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>38735</xdr:rowOff>
+      <xdr:rowOff>19685</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3888,7 +3904,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6648450" y="1295400"/>
+          <a:off x="6629400" y="1276350"/>
           <a:ext cx="828040" cy="800735"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4041,15 +4057,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:colOff>466725</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>572135</xdr:colOff>
+      <xdr:colOff>553085</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>162560</xdr:rowOff>
+      <xdr:rowOff>143510</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4064,7 +4080,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6657975" y="2609850"/>
+          <a:off x="6638925" y="2590800"/>
           <a:ext cx="772160" cy="981710"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5844,13 +5860,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>677545</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5922,13 +5938,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>514984</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5978,13 +5994,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>144145</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6154,13 +6170,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>306071</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>139699</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>657861</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7235,7 +7251,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>私钥解密</a:t>
+            <a:t>数据解密</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7763,7 +7779,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>公钥加密</a:t>
+            <a:t>数据加密</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -8520,13 +8536,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>648336</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>306071</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8570,6 +8586,348 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="矩形 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{562A1233-8651-484F-BD7C-D4722ABF3123}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2524125" y="942975"/>
+          <a:ext cx="1152525" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700"/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:uFillTx/>
+            </a:rPr>
+            <a:t>安全聊天工具</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>357188</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>357188</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="直接箭头连接符 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0091151C-7806-4126-8779-3329401B47A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="80" idx="2"/>
+          <a:endCxn id="2" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3100388" y="1200150"/>
+          <a:ext cx="0" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="箭头: 下 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94B03452-09FB-4D6B-B9F9-0B87B9AC00D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12639675" y="2247900"/>
+          <a:ext cx="190500" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 46552"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="箭头: 下 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0854433-21D6-44FA-B1A1-59D982A37862}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13296900" y="2781300"/>
+          <a:ext cx="190500" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 46552"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="箭头: 下 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D1799AC-6444-430C-B6A9-CCD6090A19CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13992225" y="3295650"/>
+          <a:ext cx="190500" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 46552"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8862,19 +9220,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="S5:U8"/>
+  <dimension ref="S5:AA22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="20" max="20" width="17.125" customWidth="1"/>
+    <col min="19" max="27" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="19:21" x14ac:dyDescent="0.15">
+    <row r="5" spans="19:27" x14ac:dyDescent="0.15">
       <c r="S5" s="1" t="s">
         <v>1</v>
       </c>
@@ -8885,7 +9243,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="19:21" x14ac:dyDescent="0.15">
+    <row r="6" spans="19:27" x14ac:dyDescent="0.15">
+      <c r="S6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="19:27" x14ac:dyDescent="0.15">
       <c r="S8" s="2" t="s">
         <v>3</v>
       </c>
@@ -8894,6 +9263,114 @@
       </c>
       <c r="U8" s="2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="19:27" x14ac:dyDescent="0.15">
+      <c r="S13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="19:27" x14ac:dyDescent="0.15">
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+    </row>
+    <row r="15" spans="19:27" x14ac:dyDescent="0.15">
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+    </row>
+    <row r="16" spans="19:27" x14ac:dyDescent="0.15">
+      <c r="S16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="19:27" x14ac:dyDescent="0.15">
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+    </row>
+    <row r="18" spans="19:27" x14ac:dyDescent="0.15">
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+    </row>
+    <row r="19" spans="19:27" x14ac:dyDescent="0.15">
+      <c r="S19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="19:27" x14ac:dyDescent="0.15">
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+    </row>
+    <row r="22" spans="19:27" x14ac:dyDescent="0.15">
+      <c r="S22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="W22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="X22" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
